--- a/bots/crawl_ch/output/clothes_2022-09-02.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-09-02.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:39</t>
+          <t>2022-09-02 21:00:58</t>
         </is>
       </c>
     </row>
